--- a/22-Final-Project/Fulton All Categories COPY.xlsx
+++ b/22-Final-Project/Fulton All Categories COPY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\GA Tech\GitHub\Instruction\22-Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\GA Tech\GitHub\Instruction\23-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1655,8 +1655,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
